--- a/Semester 3/OOP2/Attendance.xlsx
+++ b/Semester 3/OOP2/Attendance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Alam, Nazmul</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Karol</t>
+  </si>
+  <si>
+    <t>30/914</t>
   </si>
 </sst>
 </file>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +551,7 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>41897</v>
       </c>
@@ -558,8 +561,11 @@
       <c r="F1" s="1">
         <v>41904</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -573,7 +579,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -592,8 +598,17 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -612,8 +627,20 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -626,8 +653,14 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -646,16 +679,37 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -674,8 +728,20 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -694,8 +760,20 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -714,8 +792,17 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -734,8 +821,17 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -754,8 +850,20 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -774,8 +882,20 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -788,8 +908,17 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -808,8 +937,20 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -825,8 +966,17 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -845,8 +995,20 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -865,8 +1027,17 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -885,8 +1056,17 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -902,8 +1082,20 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -922,8 +1114,20 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -942,8 +1146,20 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -953,13 +1169,22 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -967,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -975,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -986,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1000,12 +1225,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1013,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1021,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1043,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1057,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1068,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1082,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1093,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1104,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1118,12 +1343,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1139,8 +1364,20 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1153,8 +1390,14 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1167,16 +1410,37 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1186,8 +1450,20 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1195,7 +1471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1208,8 +1484,14 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1222,8 +1504,20 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1236,8 +1530,17 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1247,8 +1550,11 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1261,8 +1567,20 @@
       <c r="D54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1275,8 +1593,17 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -1289,16 +1616,37 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -1311,8 +1659,20 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -1325,8 +1685,17 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -1342,8 +1711,20 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -1353,8 +1734,20 @@
       <c r="D61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -1367,20 +1760,44 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="J64">
         <v>1</v>
       </c>
     </row>

--- a/Semester 3/OOP2/Attendance.xlsx
+++ b/Semester 3/OOP2/Attendance.xlsx
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>41897</v>
       </c>
@@ -565,7 +565,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -579,7 +579,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -607,8 +607,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -639,8 +642,11 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -659,8 +665,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -691,8 +700,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -709,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -740,8 +752,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -772,8 +787,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -801,8 +819,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -830,8 +851,11 @@
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -862,8 +886,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -894,8 +921,11 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -918,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -949,8 +979,11 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -976,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1040,11 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1036,8 +1072,11 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1065,8 +1104,11 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1095,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1126,8 +1168,11 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1158,8 +1203,11 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1178,13 +1226,16 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1211,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1225,12 +1276,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1238,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1246,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1254,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1268,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1282,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1307,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1318,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1329,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1343,12 +1394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1376,8 +1427,11 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1396,8 +1450,11 @@
       <c r="I45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1422,8 +1479,11 @@
       <c r="J46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1440,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1462,8 +1522,11 @@
       <c r="J48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1471,7 +1534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1490,8 +1553,11 @@
       <c r="J50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1517,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1540,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1554,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1579,8 +1645,11 @@
       <c r="J54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1602,8 +1671,11 @@
       <c r="J55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -1628,8 +1700,11 @@
       <c r="J56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1646,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -1671,8 +1746,11 @@
       <c r="J58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -1694,8 +1772,11 @@
       <c r="I59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -1723,8 +1804,11 @@
       <c r="J60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -1746,8 +1830,11 @@
       <c r="J61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -1766,8 +1853,11 @@
       <c r="J62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1783,8 +1873,11 @@
       <c r="J63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1798,6 +1891,9 @@
         <v>1</v>
       </c>
       <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
         <v>1</v>
       </c>
     </row>

--- a/Semester 3/OOP2/Attendance.xlsx
+++ b/Semester 3/OOP2/Attendance.xlsx
@@ -254,9 +254,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +552,7 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>41897</v>
       </c>
@@ -564,8 +565,11 @@
       <c r="I1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2">
+        <v>41919</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -579,7 +583,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -610,8 +614,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -645,8 +652,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -668,8 +678,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -703,8 +716,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -720,8 +736,14 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -755,8 +777,11 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -790,8 +815,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -822,8 +850,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -854,8 +885,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -889,8 +923,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -925,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -947,8 +984,11 @@
       <c r="J14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -982,8 +1022,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1008,8 +1051,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1089,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1124,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1159,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1136,8 +1191,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1171,8 +1229,11 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1206,8 +1267,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1230,12 +1294,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1243,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1251,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1262,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1276,12 +1340,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1289,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1297,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1305,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1319,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1333,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1344,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1358,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1369,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1380,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1394,12 +1458,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1430,8 +1494,11 @@
       <c r="K44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1453,8 +1520,11 @@
       <c r="K45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1483,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1499,8 +1569,11 @@
       <c r="J47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1525,8 +1598,11 @@
       <c r="K48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1534,7 +1610,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1557,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1583,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1605,8 +1681,11 @@
       <c r="J52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1619,8 +1698,11 @@
       <c r="H53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1648,8 +1730,11 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1674,8 +1759,11 @@
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -1703,8 +1791,11 @@
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1720,8 +1811,11 @@
       <c r="J57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -1749,8 +1843,11 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -1775,8 +1872,11 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -1807,8 +1907,11 @@
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -1834,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -1857,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1877,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>

--- a/Semester 3/OOP2/Attendance.xlsx
+++ b/Semester 3/OOP2/Attendance.xlsx
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,10 +549,16 @@
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>41897</v>
       </c>
@@ -568,8 +574,12 @@
       <c r="L1" s="2">
         <v>41919</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2">
+        <v>41926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -583,7 +593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -617,8 +627,14 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -655,8 +671,14 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -681,8 +703,11 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -719,8 +744,14 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -742,8 +773,14 @@
       <c r="L7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -780,8 +817,11 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -818,8 +858,11 @@
       <c r="L9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -853,8 +896,11 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -888,8 +934,11 @@
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -926,8 +975,14 @@
       <c r="L12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -961,8 +1016,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -988,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1025,8 +1083,14 @@
       <c r="L15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1054,8 +1118,14 @@
       <c r="L16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1092,8 +1162,14 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1127,8 +1203,14 @@
       <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1162,8 +1244,14 @@
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1194,8 +1282,14 @@
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1232,8 +1326,14 @@
       <c r="L21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1270,8 +1370,14 @@
       <c r="L22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1293,13 +1399,16 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1307,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1326,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1340,12 +1449,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1353,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1361,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1369,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1383,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1397,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1408,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1433,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1444,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1458,12 +1567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1497,8 +1606,17 @@
       <c r="L44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1523,8 +1641,17 @@
       <c r="L45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1552,8 +1679,17 @@
       <c r="K46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1572,8 +1708,11 @@
       <c r="L47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1601,8 +1740,11 @@
       <c r="L48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1610,7 +1752,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1632,8 +1774,17 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1658,8 +1809,17 @@
       <c r="J51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1684,8 +1844,14 @@
       <c r="L52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1701,8 +1867,17 @@
       <c r="L53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1733,8 +1908,14 @@
       <c r="L54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1762,8 +1943,11 @@
       <c r="L55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -1794,8 +1978,17 @@
       <c r="L56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1814,8 +2007,11 @@
       <c r="L57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -1846,8 +2042,17 @@
       <c r="L58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -1875,8 +2080,14 @@
       <c r="L59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -1910,8 +2121,17 @@
       <c r="L60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -1936,8 +2156,17 @@
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -1959,8 +2188,14 @@
       <c r="K62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1980,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>

--- a/Semester 3/OOP2/Attendance.xlsx
+++ b/Semester 3/OOP2/Attendance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Alam, Nazmul</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>30/914</t>
+  </si>
+  <si>
+    <t>03/11/</t>
   </si>
 </sst>
 </file>
@@ -538,27 +541,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" customWidth="1"/>
-    <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="4" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="10" width="2.28515625" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" customWidth="1"/>
+    <col min="16" max="16" width="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>41897</v>
       </c>
@@ -578,8 +583,11 @@
       <c r="O1" s="2">
         <v>41926</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -593,7 +601,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -634,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -677,8 +685,14 @@
       <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -706,8 +720,14 @@
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -750,8 +770,14 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -779,8 +805,14 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -820,8 +852,14 @@
       <c r="O8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -861,8 +899,11 @@
       <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -899,8 +940,14 @@
       <c r="O10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -937,8 +984,11 @@
       <c r="O11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -981,8 +1031,11 @@
       <c r="O12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1019,8 +1072,11 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1045,8 +1101,11 @@
       <c r="L14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1089,8 +1148,11 @@
       <c r="O15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1124,8 +1186,14 @@
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1168,8 +1236,14 @@
       <c r="O17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1209,8 +1283,14 @@
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1250,8 +1330,14 @@
       <c r="O19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1288,8 +1374,14 @@
       <c r="O20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1332,8 +1424,14 @@
       <c r="O21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1376,8 +1474,14 @@
       <c r="O22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1402,13 +1506,19 @@
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1416,15 +1526,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1435,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1448,29 +1561,38 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1478,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1491,8 +1613,11 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1505,8 +1630,11 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1516,8 +1644,11 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1530,8 +1661,11 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1541,8 +1675,11 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1552,8 +1689,11 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1566,13 +1706,16 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1758,17 @@
       <c r="O44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1802,17 @@
       <c r="O45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1688,8 +1849,17 @@
       <c r="O46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1712,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1743,8 +1913,17 @@
       <c r="O48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1752,7 +1931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1783,8 +1962,17 @@
       <c r="O50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2006,14 @@
       <c r="O51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +2044,14 @@
       <c r="O52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1876,8 +2076,17 @@
       <c r="O53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1914,8 +2123,14 @@
       <c r="O54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1946,8 +2161,17 @@
       <c r="M55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -1987,8 +2211,14 @@
       <c r="O56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2010,8 +2240,14 @@
       <c r="O57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -2051,8 +2287,14 @@
       <c r="O58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -2086,8 +2328,14 @@
       <c r="O59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -2130,8 +2378,17 @@
       <c r="O60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -2165,8 +2422,17 @@
       <c r="O61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -2194,8 +2460,14 @@
       <c r="O62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2214,8 +2486,14 @@
       <c r="K63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2232,6 +2510,12 @@
         <v>1</v>
       </c>
       <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
         <v>1</v>
       </c>
     </row>
